--- a/src/test/resources/edu/resources/TestData.xlsx
+++ b/src/test/resources/edu/resources/TestData.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QPS-Basavanagudi\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C075EF01-7C28-4744-A369-2F4F4E722489}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B185019F-6E78-427D-A1BF-D52D60BAF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -593,7 +589,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -603,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DB3FF2-2714-4A0C-BD43-CF27AE3038AE}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/edu/resources/TestData.xlsx
+++ b/src/test/resources/edu/resources/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B185019F-6E78-427D-A1BF-D52D60BAF96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C7DC4E7A-9AF6-4262-97D2-0E326879DA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -117,12 +117,16 @@
   </si>
   <si>
     <t>C:\Users\QPS-Basavanagudi\Pictures\Camera Roll\WIN_20221106_14_02_38_Pro.jpg</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,18 +603,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DB3FF2-2714-4A0C-BD43-CF27AE3038AE}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.109375"/>
+    <col min="2" max="2" customWidth="true" style="1" width="37.88671875"/>
+    <col min="3" max="3" customWidth="true" style="1" width="29.21875"/>
+    <col min="4" max="4" customWidth="true" style="1" width="28.33203125"/>
+    <col min="5" max="5" customWidth="true" style="1" width="16.88671875"/>
+    <col min="6" max="16384" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -643,8 +647,8 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
+      <c r="E2" t="s" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -699,7 +703,7 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="1">
         <v>27</v>
       </c>
     </row>
@@ -713,7 +717,7 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -776,7 +780,7 @@
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="1">
         <v>30</v>
       </c>
     </row>

--- a/src/test/resources/edu/resources/TestData.xlsx
+++ b/src/test/resources/edu/resources/TestData.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C7DC4E7A-9AF6-4262-97D2-0E326879DA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunil\eclipse\advanceSelenium\src\test\resources\edu\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568E3EB8-0066-4565-9D00-213C534EDB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6492B4B-4497-484C-9067-5A512381FFD5}"/>
   </bookViews>
@@ -11,7 +16,6 @@
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -120,6 +124,12 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Investor</t>
   </si>
 </sst>
 </file>
@@ -263,8 +273,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9EC9369E-9B21-4747-9F40-8B17E50FAFB5}" name="Table3" displayName="Table3" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{9EC9369E-9B21-4747-9F40-8B17E50FAFB5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9EC9369E-9B21-4747-9F40-8B17E50FAFB5}" name="Table3" displayName="Table3" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{9EC9369E-9B21-4747-9F40-8B17E50FAFB5}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7594290F-ED4A-4F2B-8EA2-E0CA1A0CAAFB}" name="Test Case_ID" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{FF93A2C2-272D-470E-878A-565EAF55C979}" name="TestCase Name" dataDxfId="13" dataCellStyle="Hyperlink"/>
@@ -277,8 +287,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{23A05C6F-9E03-4743-8388-B25CC7A3D6E5}" name="Table35" displayName="Table35" ref="A5:E10" totalsRowShown="0">
-  <autoFilter ref="A5:E10" xr:uid="{23A05C6F-9E03-4743-8388-B25CC7A3D6E5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{23A05C6F-9E03-4743-8388-B25CC7A3D6E5}" name="Table35" displayName="Table35" ref="A6:E11" totalsRowShown="0">
+  <autoFilter ref="A6:E11" xr:uid="{23A05C6F-9E03-4743-8388-B25CC7A3D6E5}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{397A4593-460D-4B2A-9893-7CF0CA1CFBBF}" name="Test Case_ID" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{3AAB9E16-9669-4E1B-977F-CF4B65F6C3C1}" name="TestCase Name" dataDxfId="8" dataCellStyle="Hyperlink"/>
@@ -291,8 +301,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E96E555A-892F-4E24-B3E4-B10DD02D5B8E}" name="Table36" displayName="Table36" ref="A11:E16" totalsRowShown="0">
-  <autoFilter ref="A11:E16" xr:uid="{E96E555A-892F-4E24-B3E4-B10DD02D5B8E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E96E555A-892F-4E24-B3E4-B10DD02D5B8E}" name="Table36" displayName="Table36" ref="A12:E17" totalsRowShown="0">
+  <autoFilter ref="A12:E17" xr:uid="{E96E555A-892F-4E24-B3E4-B10DD02D5B8E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9B2E3D6C-36AF-4210-9240-F23500B2F12D}" name="Test Case_ID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{8FE930CF-94CC-4870-A74A-88780D32421F}" name="TestCase Name" dataDxfId="3" dataCellStyle="Hyperlink"/>
@@ -601,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DB3FF2-2714-4A0C-BD43-CF27AE3038AE}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +657,7 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="1">
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -663,164 +673,172 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s" s="1">
+      <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="1" t="s">
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>9</v>
       </c>
     </row>

--- a/src/test/resources/edu/resources/TestData.xlsx
+++ b/src/test/resources/edu/resources/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>TestCase Name</t>
   </si>

--- a/src/test/resources/edu/resources/TestData.xlsx
+++ b/src/test/resources/edu/resources/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>TestCase Name</t>
   </si>

--- a/src/test/resources/edu/resources/TestData.xlsx
+++ b/src/test/resources/edu/resources/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -723,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
